--- a/static/files/business_trip.xlsx
+++ b/static/files/business_trip.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>Business Travel Confirmation</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>储文婷</t>
-  </si>
-  <si>
-    <t>abc</t>
   </si>
   <si>
     <t>Schedule 
@@ -83,7 +80,7 @@
     <t>出差事由</t>
   </si>
   <si>
-    <t>2017-07-13</t>
+    <t>2017-07-14 -&gt; 2017-07-16</t>
   </si>
   <si>
     <t>上海</t>
@@ -95,19 +92,16 @@
     <t>飞机</t>
   </si>
   <si>
-    <t>2017-07-15</t>
+    <t>2017-07-16 -&gt; 2017-07-18</t>
   </si>
   <si>
     <t>广州</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2017-07-17</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>2017-07-18</t>
+  </si>
+  <si>
+    <t>回程</t>
   </si>
   <si>
     <t>Estimated traffic cost
@@ -163,7 +157,7 @@
     <t>申请人及日期:</t>
   </si>
   <si>
-    <t>储文婷 2017-07-13 14:13:04</t>
+    <t>储文婷 2017-07-14 19:21:10</t>
   </si>
   <si>
     <t>一级审批人:</t>
@@ -1700,9 +1694,7 @@
       <c r="T7" s="87" t="n"/>
       <c r="U7" s="87" t="n"/>
       <c r="V7" s="88" t="n"/>
-      <c r="W7" s="87" t="s">
-        <v>10</v>
-      </c>
+      <c r="W7" s="87" t="s"/>
       <c r="X7" s="87" t="n"/>
       <c r="Y7" s="87" t="n"/>
       <c r="Z7" s="87" t="n"/>
@@ -1753,12 +1745,12 @@
     </row>
     <row customHeight="1" ht="14.25" r="9" s="91" spans="1:34">
       <c r="A9" s="33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="34" t="n"/>
       <c r="C9" s="35" t="n"/>
       <c r="D9" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="13" t="n"/>
       <c r="F9" s="13" t="n"/>
@@ -1768,24 +1760,24 @@
       <c r="J9" s="13" t="n"/>
       <c r="K9" s="14" t="n"/>
       <c r="L9" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M9" s="13" t="n"/>
       <c r="N9" s="13" t="n"/>
       <c r="O9" s="14" t="n"/>
       <c r="P9" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="13" t="n"/>
       <c r="R9" s="13" t="n"/>
       <c r="S9" s="14" t="n"/>
       <c r="T9" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U9" s="13" t="n"/>
       <c r="V9" s="14" t="n"/>
       <c r="W9" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X9" s="19" t="n"/>
       <c r="Y9" s="19" t="n"/>
@@ -1804,7 +1796,7 @@
       <c r="B10" s="37" t="n"/>
       <c r="C10" s="38" t="n"/>
       <c r="D10" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="27" t="n"/>
       <c r="F10" s="27" t="n"/>
@@ -1814,24 +1806,24 @@
       <c r="J10" s="27" t="n"/>
       <c r="K10" s="28" t="n"/>
       <c r="L10" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M10" s="16" t="n"/>
       <c r="N10" s="16" t="n"/>
       <c r="O10" s="16" t="n"/>
       <c r="P10" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="16" t="n"/>
       <c r="R10" s="16" t="n"/>
       <c r="S10" s="16" t="n"/>
       <c r="T10" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U10" s="16" t="n"/>
       <c r="V10" s="16" t="n"/>
       <c r="W10" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X10" s="21" t="n"/>
       <c r="Y10" s="21" t="n"/>
@@ -1850,7 +1842,7 @@
       <c r="B11" s="37" t="n"/>
       <c r="C11" s="38" t="n"/>
       <c r="D11" s="63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="63" t="n"/>
       <c r="F11" s="63" t="n"/>
@@ -1860,24 +1852,24 @@
       <c r="J11" s="63" t="n"/>
       <c r="K11" s="64" t="n"/>
       <c r="L11" s="65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M11" s="65" t="n"/>
       <c r="N11" s="65" t="n"/>
       <c r="O11" s="65" t="n"/>
       <c r="P11" s="65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q11" s="65" t="n"/>
       <c r="R11" s="65" t="n"/>
       <c r="S11" s="65" t="n"/>
       <c r="T11" s="65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U11" s="65" t="n"/>
       <c r="V11" s="65" t="n"/>
       <c r="W11" s="65" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="X11" s="65" t="n"/>
       <c r="Y11" s="65" t="n"/>
@@ -1896,7 +1888,7 @@
       <c r="B12" s="37" t="n"/>
       <c r="C12" s="38" t="n"/>
       <c r="D12" s="63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="63" t="n"/>
       <c r="F12" s="63" t="n"/>
@@ -1906,24 +1898,24 @@
       <c r="J12" s="63" t="n"/>
       <c r="K12" s="64" t="n"/>
       <c r="L12" s="65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M12" s="65" t="n"/>
       <c r="N12" s="65" t="n"/>
       <c r="O12" s="65" t="n"/>
       <c r="P12" s="65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="65" t="n"/>
       <c r="R12" s="65" t="n"/>
       <c r="S12" s="65" t="n"/>
       <c r="T12" s="65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U12" s="65" t="n"/>
       <c r="V12" s="65" t="n"/>
       <c r="W12" s="67" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="X12" s="63" t="n"/>
       <c r="Y12" s="63" t="n"/>
@@ -1942,7 +1934,7 @@
       <c r="B13" s="37" t="n"/>
       <c r="C13" s="38" t="n"/>
       <c r="D13" s="63" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E13" s="63" t="n"/>
       <c r="F13" s="63" t="n"/>
@@ -1952,24 +1944,24 @@
       <c r="J13" s="63" t="n"/>
       <c r="K13" s="64" t="n"/>
       <c r="L13" s="65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M13" s="65" t="n"/>
       <c r="N13" s="65" t="n"/>
       <c r="O13" s="65" t="n"/>
       <c r="P13" s="65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q13" s="65" t="n"/>
       <c r="R13" s="65" t="n"/>
       <c r="S13" s="65" t="n"/>
       <c r="T13" s="65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U13" s="65" t="n"/>
       <c r="V13" s="65" t="n"/>
       <c r="W13" s="67" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X13" s="63" t="n"/>
       <c r="Y13" s="63" t="n"/>
@@ -2093,7 +2085,7 @@
     </row>
     <row customHeight="1" ht="34.5" r="17" s="91" spans="1:34">
       <c r="A17" s="31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="10" t="n"/>
       <c r="C17" s="10" t="n"/>
@@ -2101,7 +2093,7 @@
       <c r="E17" s="10" t="n"/>
       <c r="F17" s="11" t="n"/>
       <c r="G17" s="32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H17" s="10" t="n"/>
       <c r="I17" s="10" t="n"/>
@@ -2110,7 +2102,7 @@
       <c r="L17" s="10" t="n"/>
       <c r="M17" s="11" t="n"/>
       <c r="N17" s="32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O17" s="10" t="n"/>
       <c r="P17" s="10" t="n"/>
@@ -2118,7 +2110,7 @@
       <c r="R17" s="10" t="n"/>
       <c r="S17" s="11" t="n"/>
       <c r="T17" s="32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="U17" s="10" t="n"/>
       <c r="V17" s="10" t="n"/>
@@ -2127,7 +2119,7 @@
       <c r="Y17" s="10" t="n"/>
       <c r="Z17" s="11" t="n"/>
       <c r="AA17" s="32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB17" s="10" t="n"/>
       <c r="AC17" s="10" t="n"/>
@@ -2139,7 +2131,7 @@
     </row>
     <row customHeight="1" ht="31.5" r="18" s="91" spans="1:34">
       <c r="A18" s="69" t="n">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="B18" s="70" t="n"/>
       <c r="C18" s="70" t="n"/>
@@ -2147,7 +2139,7 @@
       <c r="E18" s="70" t="n"/>
       <c r="F18" s="71" t="n"/>
       <c r="G18" s="72" t="n">
-        <v>321</v>
+        <v>500</v>
       </c>
       <c r="H18" s="73" t="n"/>
       <c r="I18" s="73" t="n"/>
@@ -2156,7 +2148,7 @@
       <c r="L18" s="73" t="n"/>
       <c r="M18" s="74" t="n"/>
       <c r="N18" s="72" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="O18" s="73" t="n"/>
       <c r="P18" s="73" t="n"/>
@@ -2173,7 +2165,7 @@
       <c r="Y18" s="73" t="n"/>
       <c r="Z18" s="74" t="n"/>
       <c r="AA18" s="72" t="n">
-        <v>444</v>
+        <v>1200</v>
       </c>
       <c r="AB18" s="73" t="n"/>
       <c r="AC18" s="73" t="n"/>
@@ -2185,7 +2177,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="19" s="91" spans="1:34">
       <c r="A19" s="55" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="24" t="n"/>
       <c r="C19" s="24" t="n"/>
@@ -2198,7 +2190,7 @@
       <c r="J19" s="24" t="n"/>
       <c r="K19" s="25" t="n"/>
       <c r="L19" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M19" s="24" t="n"/>
       <c r="N19" s="24" t="n"/>
@@ -2211,7 +2203,7 @@
       <c r="U19" s="24" t="n"/>
       <c r="V19" s="25" t="n"/>
       <c r="W19" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X19" s="24" t="n"/>
       <c r="Y19" s="24" t="n"/>
@@ -2227,7 +2219,7 @@
     </row>
     <row customHeight="1" ht="14.25" r="20" s="91" spans="1:34">
       <c r="A20" s="56" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B20" s="27" t="n"/>
       <c r="C20" s="27" t="n"/>
@@ -2240,7 +2232,7 @@
       <c r="J20" s="27" t="n"/>
       <c r="K20" s="28" t="n"/>
       <c r="L20" s="26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M20" s="27" t="n"/>
       <c r="N20" s="27" t="n"/>
@@ -2253,7 +2245,7 @@
       <c r="U20" s="27" t="n"/>
       <c r="V20" s="28" t="n"/>
       <c r="W20" s="26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="X20" s="27" t="n"/>
       <c r="Y20" s="27" t="n"/>
@@ -2269,7 +2261,7 @@
     </row>
     <row customHeight="1" ht="30.75" r="21" s="91" spans="1:34">
       <c r="A21" s="76" t="n">
-        <v>3600</v>
+        <v>4000</v>
       </c>
       <c r="B21" s="77" t="n"/>
       <c r="C21" s="77" t="n"/>
@@ -2282,7 +2274,7 @@
       <c r="J21" s="77" t="n"/>
       <c r="K21" s="78" t="n"/>
       <c r="L21" s="79" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="M21" s="77" t="n"/>
       <c r="N21" s="77" t="n"/>
@@ -2295,7 +2287,7 @@
       <c r="U21" s="77" t="n"/>
       <c r="V21" s="78" t="n"/>
       <c r="W21" s="80" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="X21" s="81" t="n"/>
       <c r="Y21" s="81" t="n"/>
@@ -2383,7 +2375,7 @@
     </row>
     <row customHeight="1" ht="21.75" r="24" s="91" spans="1:34">
       <c r="A24" s="57" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B24" s="58" t="n"/>
       <c r="C24" s="58" t="n"/>
@@ -2396,7 +2388,7 @@
       <c r="J24" s="58" t="n"/>
       <c r="K24" s="59" t="n"/>
       <c r="L24" s="60" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M24" s="58" t="n"/>
       <c r="N24" s="58" t="n"/>
@@ -2409,7 +2401,7 @@
       <c r="U24" s="58" t="n"/>
       <c r="V24" s="58" t="n"/>
       <c r="W24" s="60" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="X24" s="58" t="n"/>
       <c r="Y24" s="58" t="n"/>
@@ -2425,13 +2417,13 @@
     </row>
     <row customHeight="1" ht="21.75" r="25" s="91" spans="1:34">
       <c r="A25" s="30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B25" s="29" t="n"/>
       <c r="C25" s="29" t="n"/>
       <c r="D25" s="29" t="n"/>
       <c r="E25" s="83" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F25" s="83" t="n"/>
       <c r="G25" s="83" t="n"/>
@@ -2440,7 +2432,7 @@
       <c r="J25" s="83" t="n"/>
       <c r="K25" s="84" t="n"/>
       <c r="L25" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M25" s="29" t="n"/>
       <c r="N25" s="29" t="n"/>
@@ -2455,7 +2447,7 @@
       <c r="U25" s="83" t="n"/>
       <c r="V25" s="83" t="n"/>
       <c r="W25" s="61" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="X25" s="29" t="n"/>
       <c r="Y25" s="29" t="n"/>

--- a/static/files/business_trip.xlsx
+++ b/static/files/business_trip.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>Business Travel Confirmation</t>
   </si>
@@ -80,28 +80,16 @@
     <t>出差事由</t>
   </si>
   <si>
-    <t>2017-07-14 -&gt; 2017-07-16</t>
-  </si>
-  <si>
-    <t>上海</t>
-  </si>
-  <si>
-    <t>北京</t>
+    <t>2017-07-21</t>
+  </si>
+  <si>
+    <t>上海市</t>
+  </si>
+  <si>
+    <t>北京市</t>
   </si>
   <si>
     <t>飞机</t>
-  </si>
-  <si>
-    <t>2017-07-16 -&gt; 2017-07-18</t>
-  </si>
-  <si>
-    <t>广州</t>
-  </si>
-  <si>
-    <t>2017-07-18</t>
-  </si>
-  <si>
-    <t>回程</t>
   </si>
   <si>
     <t>Estimated traffic cost
@@ -142,7 +130,7 @@
     <t>住宿费用支付方式</t>
   </si>
   <si>
-    <t>公司月结</t>
+    <t>无住宿</t>
   </si>
   <si>
     <t>Prepared by &amp; date</t>
@@ -157,7 +145,7 @@
     <t>申请人及日期:</t>
   </si>
   <si>
-    <t>储文婷 2017-07-14 19:21:10</t>
+    <t>储文婷 2017-07-21 18:20:56</t>
   </si>
   <si>
     <t>一级审批人:</t>
@@ -1869,7 +1857,7 @@
       <c r="U11" s="65" t="n"/>
       <c r="V11" s="65" t="n"/>
       <c r="W11" s="65" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="X11" s="65" t="n"/>
       <c r="Y11" s="65" t="n"/>
@@ -1887,9 +1875,7 @@
       <c r="A12" s="36" t="n"/>
       <c r="B12" s="37" t="n"/>
       <c r="C12" s="38" t="n"/>
-      <c r="D12" s="63" t="s">
-        <v>25</v>
-      </c>
+      <c r="D12" s="63" t="n"/>
       <c r="E12" s="63" t="n"/>
       <c r="F12" s="63" t="n"/>
       <c r="G12" s="63" t="n"/>
@@ -1897,26 +1883,18 @@
       <c r="I12" s="63" t="n"/>
       <c r="J12" s="63" t="n"/>
       <c r="K12" s="64" t="n"/>
-      <c r="L12" s="65" t="s">
-        <v>23</v>
-      </c>
+      <c r="L12" s="65" t="n"/>
       <c r="M12" s="65" t="n"/>
       <c r="N12" s="65" t="n"/>
       <c r="O12" s="65" t="n"/>
-      <c r="P12" s="65" t="s">
-        <v>26</v>
-      </c>
+      <c r="P12" s="65" t="n"/>
       <c r="Q12" s="65" t="n"/>
       <c r="R12" s="65" t="n"/>
       <c r="S12" s="65" t="n"/>
-      <c r="T12" s="65" t="s">
-        <v>24</v>
-      </c>
+      <c r="T12" s="65" t="n"/>
       <c r="U12" s="65" t="n"/>
       <c r="V12" s="65" t="n"/>
-      <c r="W12" s="67" t="s">
-        <v>20</v>
-      </c>
+      <c r="W12" s="67" t="n"/>
       <c r="X12" s="63" t="n"/>
       <c r="Y12" s="63" t="n"/>
       <c r="Z12" s="63" t="n"/>
@@ -1933,9 +1911,7 @@
       <c r="A13" s="36" t="n"/>
       <c r="B13" s="37" t="n"/>
       <c r="C13" s="38" t="n"/>
-      <c r="D13" s="63" t="s">
-        <v>27</v>
-      </c>
+      <c r="D13" s="63" t="n"/>
       <c r="E13" s="63" t="n"/>
       <c r="F13" s="63" t="n"/>
       <c r="G13" s="63" t="n"/>
@@ -1943,26 +1919,18 @@
       <c r="I13" s="63" t="n"/>
       <c r="J13" s="63" t="n"/>
       <c r="K13" s="64" t="n"/>
-      <c r="L13" s="65" t="s">
-        <v>26</v>
-      </c>
+      <c r="L13" s="65" t="n"/>
       <c r="M13" s="65" t="n"/>
       <c r="N13" s="65" t="n"/>
       <c r="O13" s="65" t="n"/>
-      <c r="P13" s="65" t="s">
-        <v>22</v>
-      </c>
+      <c r="P13" s="65" t="n"/>
       <c r="Q13" s="65" t="n"/>
       <c r="R13" s="65" t="n"/>
       <c r="S13" s="65" t="n"/>
-      <c r="T13" s="65" t="s">
-        <v>24</v>
-      </c>
+      <c r="T13" s="65" t="n"/>
       <c r="U13" s="65" t="n"/>
       <c r="V13" s="65" t="n"/>
-      <c r="W13" s="67" t="s">
-        <v>28</v>
-      </c>
+      <c r="W13" s="67" t="n"/>
       <c r="X13" s="63" t="n"/>
       <c r="Y13" s="63" t="n"/>
       <c r="Z13" s="63" t="n"/>
@@ -2085,7 +2053,7 @@
     </row>
     <row customHeight="1" ht="34.5" r="17" s="91" spans="1:34">
       <c r="A17" s="31" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B17" s="10" t="n"/>
       <c r="C17" s="10" t="n"/>
@@ -2093,7 +2061,7 @@
       <c r="E17" s="10" t="n"/>
       <c r="F17" s="11" t="n"/>
       <c r="G17" s="32" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H17" s="10" t="n"/>
       <c r="I17" s="10" t="n"/>
@@ -2102,7 +2070,7 @@
       <c r="L17" s="10" t="n"/>
       <c r="M17" s="11" t="n"/>
       <c r="N17" s="32" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O17" s="10" t="n"/>
       <c r="P17" s="10" t="n"/>
@@ -2110,7 +2078,7 @@
       <c r="R17" s="10" t="n"/>
       <c r="S17" s="11" t="n"/>
       <c r="T17" s="32" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="U17" s="10" t="n"/>
       <c r="V17" s="10" t="n"/>
@@ -2119,7 +2087,7 @@
       <c r="Y17" s="10" t="n"/>
       <c r="Z17" s="11" t="n"/>
       <c r="AA17" s="32" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AB17" s="10" t="n"/>
       <c r="AC17" s="10" t="n"/>
@@ -2131,7 +2099,7 @@
     </row>
     <row customHeight="1" ht="31.5" r="18" s="91" spans="1:34">
       <c r="A18" s="69" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="B18" s="70" t="n"/>
       <c r="C18" s="70" t="n"/>
@@ -2148,7 +2116,7 @@
       <c r="L18" s="73" t="n"/>
       <c r="M18" s="74" t="n"/>
       <c r="N18" s="72" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="O18" s="73" t="n"/>
       <c r="P18" s="73" t="n"/>
@@ -2165,7 +2133,7 @@
       <c r="Y18" s="73" t="n"/>
       <c r="Z18" s="74" t="n"/>
       <c r="AA18" s="72" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="AB18" s="73" t="n"/>
       <c r="AC18" s="73" t="n"/>
@@ -2177,7 +2145,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="19" s="91" spans="1:34">
       <c r="A19" s="55" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B19" s="24" t="n"/>
       <c r="C19" s="24" t="n"/>
@@ -2190,7 +2158,7 @@
       <c r="J19" s="24" t="n"/>
       <c r="K19" s="25" t="n"/>
       <c r="L19" s="23" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M19" s="24" t="n"/>
       <c r="N19" s="24" t="n"/>
@@ -2203,7 +2171,7 @@
       <c r="U19" s="24" t="n"/>
       <c r="V19" s="25" t="n"/>
       <c r="W19" s="23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="X19" s="24" t="n"/>
       <c r="Y19" s="24" t="n"/>
@@ -2219,7 +2187,7 @@
     </row>
     <row customHeight="1" ht="14.25" r="20" s="91" spans="1:34">
       <c r="A20" s="56" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B20" s="27" t="n"/>
       <c r="C20" s="27" t="n"/>
@@ -2232,7 +2200,7 @@
       <c r="J20" s="27" t="n"/>
       <c r="K20" s="28" t="n"/>
       <c r="L20" s="26" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M20" s="27" t="n"/>
       <c r="N20" s="27" t="n"/>
@@ -2245,7 +2213,7 @@
       <c r="U20" s="27" t="n"/>
       <c r="V20" s="28" t="n"/>
       <c r="W20" s="26" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="X20" s="27" t="n"/>
       <c r="Y20" s="27" t="n"/>
@@ -2261,7 +2229,7 @@
     </row>
     <row customHeight="1" ht="30.75" r="21" s="91" spans="1:34">
       <c r="A21" s="76" t="n">
-        <v>4000</v>
+        <v>123</v>
       </c>
       <c r="B21" s="77" t="n"/>
       <c r="C21" s="77" t="n"/>
@@ -2274,7 +2242,7 @@
       <c r="J21" s="77" t="n"/>
       <c r="K21" s="78" t="n"/>
       <c r="L21" s="79" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="M21" s="77" t="n"/>
       <c r="N21" s="77" t="n"/>
@@ -2287,7 +2255,7 @@
       <c r="U21" s="77" t="n"/>
       <c r="V21" s="78" t="n"/>
       <c r="W21" s="80" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="X21" s="81" t="n"/>
       <c r="Y21" s="81" t="n"/>
@@ -2375,7 +2343,7 @@
     </row>
     <row customHeight="1" ht="21.75" r="24" s="91" spans="1:34">
       <c r="A24" s="57" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B24" s="58" t="n"/>
       <c r="C24" s="58" t="n"/>
@@ -2388,7 +2356,7 @@
       <c r="J24" s="58" t="n"/>
       <c r="K24" s="59" t="n"/>
       <c r="L24" s="60" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M24" s="58" t="n"/>
       <c r="N24" s="58" t="n"/>
@@ -2401,7 +2369,7 @@
       <c r="U24" s="58" t="n"/>
       <c r="V24" s="58" t="n"/>
       <c r="W24" s="60" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="X24" s="58" t="n"/>
       <c r="Y24" s="58" t="n"/>
@@ -2417,13 +2385,13 @@
     </row>
     <row customHeight="1" ht="21.75" r="25" s="91" spans="1:34">
       <c r="A25" s="30" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B25" s="29" t="n"/>
       <c r="C25" s="29" t="n"/>
       <c r="D25" s="29" t="n"/>
       <c r="E25" s="83" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F25" s="83" t="n"/>
       <c r="G25" s="83" t="n"/>
@@ -2432,7 +2400,7 @@
       <c r="J25" s="83" t="n"/>
       <c r="K25" s="84" t="n"/>
       <c r="L25" s="61" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M25" s="29" t="n"/>
       <c r="N25" s="29" t="n"/>
@@ -2447,7 +2415,7 @@
       <c r="U25" s="83" t="n"/>
       <c r="V25" s="83" t="n"/>
       <c r="W25" s="61" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="X25" s="29" t="n"/>
       <c r="Y25" s="29" t="n"/>

--- a/static/files/business_trip.xlsx
+++ b/static/files/business_trip.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>Business Travel Confirmation</t>
   </si>
@@ -40,10 +40,10 @@
     <t>同行人</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>储文婷</t>
+    <t>数据服务中心</t>
+  </si>
+  <si>
+    <t>小萨</t>
   </si>
   <si>
     <t>Schedule 
@@ -80,16 +80,20 @@
     <t>出差事由</t>
   </si>
   <si>
-    <t>2017-07-21</t>
+    <t>2019-04-24 -&gt; 2019-04-26</t>
   </si>
   <si>
     <t>上海市</t>
   </si>
   <si>
-    <t>北京市</t>
+    <t>西安市</t>
   </si>
   <si>
     <t>飞机</t>
+  </si>
+  <si>
+    <t>分公司工作安排
+南京兼职面基</t>
   </si>
   <si>
     <t>Estimated traffic cost
@@ -130,7 +134,7 @@
     <t>住宿费用支付方式</t>
   </si>
   <si>
-    <t>无住宿</t>
+    <t>前台现结</t>
   </si>
   <si>
     <t>Prepared by &amp; date</t>
@@ -145,10 +149,13 @@
     <t>申请人及日期:</t>
   </si>
   <si>
-    <t>储文婷 2017-07-21 18:20:56</t>
+    <t>小萨 2019-04-28 19:15:06</t>
   </si>
   <si>
     <t>一级审批人:</t>
+  </si>
+  <si>
+    <t>曹津</t>
   </si>
   <si>
     <t>二级审批人:</t>
@@ -1857,7 +1864,7 @@
       <c r="U11" s="65" t="n"/>
       <c r="V11" s="65" t="n"/>
       <c r="W11" s="65" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="X11" s="65" t="n"/>
       <c r="Y11" s="65" t="n"/>
@@ -2053,7 +2060,7 @@
     </row>
     <row customHeight="1" ht="34.5" r="17" s="91" spans="1:34">
       <c r="A17" s="31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="10" t="n"/>
       <c r="C17" s="10" t="n"/>
@@ -2061,7 +2068,7 @@
       <c r="E17" s="10" t="n"/>
       <c r="F17" s="11" t="n"/>
       <c r="G17" s="32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H17" s="10" t="n"/>
       <c r="I17" s="10" t="n"/>
@@ -2070,7 +2077,7 @@
       <c r="L17" s="10" t="n"/>
       <c r="M17" s="11" t="n"/>
       <c r="N17" s="32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O17" s="10" t="n"/>
       <c r="P17" s="10" t="n"/>
@@ -2078,7 +2085,7 @@
       <c r="R17" s="10" t="n"/>
       <c r="S17" s="11" t="n"/>
       <c r="T17" s="32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U17" s="10" t="n"/>
       <c r="V17" s="10" t="n"/>
@@ -2087,7 +2094,7 @@
       <c r="Y17" s="10" t="n"/>
       <c r="Z17" s="11" t="n"/>
       <c r="AA17" s="32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB17" s="10" t="n"/>
       <c r="AC17" s="10" t="n"/>
@@ -2107,7 +2114,7 @@
       <c r="E18" s="70" t="n"/>
       <c r="F18" s="71" t="n"/>
       <c r="G18" s="72" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H18" s="73" t="n"/>
       <c r="I18" s="73" t="n"/>
@@ -2124,7 +2131,7 @@
       <c r="R18" s="73" t="n"/>
       <c r="S18" s="74" t="n"/>
       <c r="T18" s="72" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="U18" s="73" t="n"/>
       <c r="V18" s="73" t="n"/>
@@ -2133,7 +2140,7 @@
       <c r="Y18" s="73" t="n"/>
       <c r="Z18" s="74" t="n"/>
       <c r="AA18" s="72" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="AB18" s="73" t="n"/>
       <c r="AC18" s="73" t="n"/>
@@ -2145,7 +2152,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="19" s="91" spans="1:34">
       <c r="A19" s="55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="24" t="n"/>
       <c r="C19" s="24" t="n"/>
@@ -2158,7 +2165,7 @@
       <c r="J19" s="24" t="n"/>
       <c r="K19" s="25" t="n"/>
       <c r="L19" s="23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M19" s="24" t="n"/>
       <c r="N19" s="24" t="n"/>
@@ -2171,7 +2178,7 @@
       <c r="U19" s="24" t="n"/>
       <c r="V19" s="25" t="n"/>
       <c r="W19" s="23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X19" s="24" t="n"/>
       <c r="Y19" s="24" t="n"/>
@@ -2187,7 +2194,7 @@
     </row>
     <row customHeight="1" ht="14.25" r="20" s="91" spans="1:34">
       <c r="A20" s="56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="27" t="n"/>
       <c r="C20" s="27" t="n"/>
@@ -2200,7 +2207,7 @@
       <c r="J20" s="27" t="n"/>
       <c r="K20" s="28" t="n"/>
       <c r="L20" s="26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M20" s="27" t="n"/>
       <c r="N20" s="27" t="n"/>
@@ -2213,7 +2220,7 @@
       <c r="U20" s="27" t="n"/>
       <c r="V20" s="28" t="n"/>
       <c r="W20" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X20" s="27" t="n"/>
       <c r="Y20" s="27" t="n"/>
@@ -2229,7 +2236,7 @@
     </row>
     <row customHeight="1" ht="30.75" r="21" s="91" spans="1:34">
       <c r="A21" s="76" t="n">
-        <v>123</v>
+        <v>2251</v>
       </c>
       <c r="B21" s="77" t="n"/>
       <c r="C21" s="77" t="n"/>
@@ -2255,7 +2262,7 @@
       <c r="U21" s="77" t="n"/>
       <c r="V21" s="78" t="n"/>
       <c r="W21" s="80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X21" s="81" t="n"/>
       <c r="Y21" s="81" t="n"/>
@@ -2343,7 +2350,7 @@
     </row>
     <row customHeight="1" ht="21.75" r="24" s="91" spans="1:34">
       <c r="A24" s="57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" s="58" t="n"/>
       <c r="C24" s="58" t="n"/>
@@ -2356,7 +2363,7 @@
       <c r="J24" s="58" t="n"/>
       <c r="K24" s="59" t="n"/>
       <c r="L24" s="60" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M24" s="58" t="n"/>
       <c r="N24" s="58" t="n"/>
@@ -2369,7 +2376,7 @@
       <c r="U24" s="58" t="n"/>
       <c r="V24" s="58" t="n"/>
       <c r="W24" s="60" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X24" s="58" t="n"/>
       <c r="Y24" s="58" t="n"/>
@@ -2385,13 +2392,13 @@
     </row>
     <row customHeight="1" ht="21.75" r="25" s="91" spans="1:34">
       <c r="A25" s="30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" s="29" t="n"/>
       <c r="C25" s="29" t="n"/>
       <c r="D25" s="29" t="n"/>
       <c r="E25" s="83" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F25" s="83" t="n"/>
       <c r="G25" s="83" t="n"/>
@@ -2400,14 +2407,14 @@
       <c r="J25" s="83" t="n"/>
       <c r="K25" s="84" t="n"/>
       <c r="L25" s="61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M25" s="29" t="n"/>
       <c r="N25" s="29" t="n"/>
       <c r="O25" s="29" t="n"/>
       <c r="P25" s="29" t="n"/>
       <c r="Q25" s="83" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="R25" s="83" t="n"/>
       <c r="S25" s="83" t="n"/>
@@ -2415,14 +2422,14 @@
       <c r="U25" s="83" t="n"/>
       <c r="V25" s="83" t="n"/>
       <c r="W25" s="61" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X25" s="29" t="n"/>
       <c r="Y25" s="29" t="n"/>
       <c r="Z25" s="29" t="n"/>
       <c r="AA25" s="29" t="n"/>
       <c r="AB25" s="83" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="AC25" s="83" t="n"/>
       <c r="AD25" s="83" t="n"/>

--- a/static/files/business_trip.xlsx
+++ b/static/files/business_trip.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>Business Travel Confirmation</t>
   </si>
@@ -40,10 +40,13 @@
     <t>同行人</t>
   </si>
   <si>
-    <t>数据服务中心</t>
-  </si>
-  <si>
-    <t>小萨</t>
+    <t>商务中心</t>
+  </si>
+  <si>
+    <t>程璐</t>
+  </si>
+  <si>
+    <t>无</t>
   </si>
   <si>
     <t>Schedule 
@@ -80,20 +83,34 @@
     <t>出差事由</t>
   </si>
   <si>
-    <t>2019-04-24 -&gt; 2019-04-26</t>
+    <t>2019-09-27</t>
   </si>
   <si>
     <t>上海市</t>
   </si>
   <si>
-    <t>西安市</t>
+    <t>北京市</t>
+  </si>
+  <si>
+    <t>火车</t>
+  </si>
+  <si>
+    <t>回京</t>
+  </si>
+  <si>
+    <t>南京市</t>
+  </si>
+  <si>
+    <t>INTEL合作沟通</t>
+  </si>
+  <si>
+    <t>2019-09-23 -&gt; 2019-09-27</t>
   </si>
   <si>
     <t>飞机</t>
   </si>
   <si>
-    <t>分公司工作安排
-南京兼职面基</t>
+    <t>签约MCN、小葫芦盛典合作沟通，唯一色彩等客户聚宝盆合作沟通</t>
   </si>
   <si>
     <t>Estimated traffic cost
@@ -149,7 +166,7 @@
     <t>申请人及日期:</t>
   </si>
   <si>
-    <t>小萨 2019-04-28 19:15:06</t>
+    <t>程璐 2019-09-27 17:14:01</t>
   </si>
   <si>
     <t>一级审批人:</t>
@@ -1689,7 +1706,9 @@
       <c r="T7" s="87" t="n"/>
       <c r="U7" s="87" t="n"/>
       <c r="V7" s="88" t="n"/>
-      <c r="W7" s="87" t="s"/>
+      <c r="W7" s="87" t="s">
+        <v>10</v>
+      </c>
       <c r="X7" s="87" t="n"/>
       <c r="Y7" s="87" t="n"/>
       <c r="Z7" s="87" t="n"/>
@@ -1740,12 +1759,12 @@
     </row>
     <row customHeight="1" ht="14.25" r="9" s="91" spans="1:34">
       <c r="A9" s="33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="34" t="n"/>
       <c r="C9" s="35" t="n"/>
       <c r="D9" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" s="13" t="n"/>
       <c r="F9" s="13" t="n"/>
@@ -1755,24 +1774,24 @@
       <c r="J9" s="13" t="n"/>
       <c r="K9" s="14" t="n"/>
       <c r="L9" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M9" s="13" t="n"/>
       <c r="N9" s="13" t="n"/>
       <c r="O9" s="14" t="n"/>
       <c r="P9" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="13" t="n"/>
       <c r="R9" s="13" t="n"/>
       <c r="S9" s="14" t="n"/>
       <c r="T9" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U9" s="13" t="n"/>
       <c r="V9" s="14" t="n"/>
       <c r="W9" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X9" s="19" t="n"/>
       <c r="Y9" s="19" t="n"/>
@@ -1791,7 +1810,7 @@
       <c r="B10" s="37" t="n"/>
       <c r="C10" s="38" t="n"/>
       <c r="D10" s="27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" s="27" t="n"/>
       <c r="F10" s="27" t="n"/>
@@ -1801,24 +1820,24 @@
       <c r="J10" s="27" t="n"/>
       <c r="K10" s="28" t="n"/>
       <c r="L10" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M10" s="16" t="n"/>
       <c r="N10" s="16" t="n"/>
       <c r="O10" s="16" t="n"/>
       <c r="P10" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q10" s="16" t="n"/>
       <c r="R10" s="16" t="n"/>
       <c r="S10" s="16" t="n"/>
       <c r="T10" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U10" s="16" t="n"/>
       <c r="V10" s="16" t="n"/>
       <c r="W10" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X10" s="21" t="n"/>
       <c r="Y10" s="21" t="n"/>
@@ -1837,7 +1856,7 @@
       <c r="B11" s="37" t="n"/>
       <c r="C11" s="38" t="n"/>
       <c r="D11" s="63" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" s="63" t="n"/>
       <c r="F11" s="63" t="n"/>
@@ -1847,24 +1866,24 @@
       <c r="J11" s="63" t="n"/>
       <c r="K11" s="64" t="n"/>
       <c r="L11" s="65" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M11" s="65" t="n"/>
       <c r="N11" s="65" t="n"/>
       <c r="O11" s="65" t="n"/>
       <c r="P11" s="65" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q11" s="65" t="n"/>
       <c r="R11" s="65" t="n"/>
       <c r="S11" s="65" t="n"/>
       <c r="T11" s="65" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U11" s="65" t="n"/>
       <c r="V11" s="65" t="n"/>
       <c r="W11" s="65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X11" s="65" t="n"/>
       <c r="Y11" s="65" t="n"/>
@@ -1882,7 +1901,9 @@
       <c r="A12" s="36" t="n"/>
       <c r="B12" s="37" t="n"/>
       <c r="C12" s="38" t="n"/>
-      <c r="D12" s="63" t="n"/>
+      <c r="D12" s="63" t="s">
+        <v>22</v>
+      </c>
       <c r="E12" s="63" t="n"/>
       <c r="F12" s="63" t="n"/>
       <c r="G12" s="63" t="n"/>
@@ -1890,18 +1911,26 @@
       <c r="I12" s="63" t="n"/>
       <c r="J12" s="63" t="n"/>
       <c r="K12" s="64" t="n"/>
-      <c r="L12" s="65" t="n"/>
+      <c r="L12" s="65" t="s">
+        <v>27</v>
+      </c>
       <c r="M12" s="65" t="n"/>
       <c r="N12" s="65" t="n"/>
       <c r="O12" s="65" t="n"/>
-      <c r="P12" s="65" t="n"/>
+      <c r="P12" s="65" t="s">
+        <v>23</v>
+      </c>
       <c r="Q12" s="65" t="n"/>
       <c r="R12" s="65" t="n"/>
       <c r="S12" s="65" t="n"/>
-      <c r="T12" s="65" t="n"/>
+      <c r="T12" s="65" t="s">
+        <v>25</v>
+      </c>
       <c r="U12" s="65" t="n"/>
       <c r="V12" s="65" t="n"/>
-      <c r="W12" s="67" t="n"/>
+      <c r="W12" s="67" t="s">
+        <v>28</v>
+      </c>
       <c r="X12" s="63" t="n"/>
       <c r="Y12" s="63" t="n"/>
       <c r="Z12" s="63" t="n"/>
@@ -1918,7 +1947,9 @@
       <c r="A13" s="36" t="n"/>
       <c r="B13" s="37" t="n"/>
       <c r="C13" s="38" t="n"/>
-      <c r="D13" s="63" t="n"/>
+      <c r="D13" s="63" t="s">
+        <v>29</v>
+      </c>
       <c r="E13" s="63" t="n"/>
       <c r="F13" s="63" t="n"/>
       <c r="G13" s="63" t="n"/>
@@ -1926,18 +1957,26 @@
       <c r="I13" s="63" t="n"/>
       <c r="J13" s="63" t="n"/>
       <c r="K13" s="64" t="n"/>
-      <c r="L13" s="65" t="n"/>
+      <c r="L13" s="65" t="s">
+        <v>24</v>
+      </c>
       <c r="M13" s="65" t="n"/>
       <c r="N13" s="65" t="n"/>
       <c r="O13" s="65" t="n"/>
-      <c r="P13" s="65" t="n"/>
+      <c r="P13" s="65" t="s">
+        <v>23</v>
+      </c>
       <c r="Q13" s="65" t="n"/>
       <c r="R13" s="65" t="n"/>
       <c r="S13" s="65" t="n"/>
-      <c r="T13" s="65" t="n"/>
+      <c r="T13" s="65" t="s">
+        <v>30</v>
+      </c>
       <c r="U13" s="65" t="n"/>
       <c r="V13" s="65" t="n"/>
-      <c r="W13" s="67" t="n"/>
+      <c r="W13" s="67" t="s">
+        <v>31</v>
+      </c>
       <c r="X13" s="63" t="n"/>
       <c r="Y13" s="63" t="n"/>
       <c r="Z13" s="63" t="n"/>
@@ -2060,7 +2099,7 @@
     </row>
     <row customHeight="1" ht="34.5" r="17" s="91" spans="1:34">
       <c r="A17" s="31" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B17" s="10" t="n"/>
       <c r="C17" s="10" t="n"/>
@@ -2068,7 +2107,7 @@
       <c r="E17" s="10" t="n"/>
       <c r="F17" s="11" t="n"/>
       <c r="G17" s="32" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H17" s="10" t="n"/>
       <c r="I17" s="10" t="n"/>
@@ -2077,7 +2116,7 @@
       <c r="L17" s="10" t="n"/>
       <c r="M17" s="11" t="n"/>
       <c r="N17" s="32" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="O17" s="10" t="n"/>
       <c r="P17" s="10" t="n"/>
@@ -2085,7 +2124,7 @@
       <c r="R17" s="10" t="n"/>
       <c r="S17" s="11" t="n"/>
       <c r="T17" s="32" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="U17" s="10" t="n"/>
       <c r="V17" s="10" t="n"/>
@@ -2094,7 +2133,7 @@
       <c r="Y17" s="10" t="n"/>
       <c r="Z17" s="11" t="n"/>
       <c r="AA17" s="32" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AB17" s="10" t="n"/>
       <c r="AC17" s="10" t="n"/>
@@ -2106,7 +2145,7 @@
     </row>
     <row customHeight="1" ht="31.5" r="18" s="91" spans="1:34">
       <c r="A18" s="69" t="n">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="B18" s="70" t="n"/>
       <c r="C18" s="70" t="n"/>
@@ -2114,7 +2153,7 @@
       <c r="E18" s="70" t="n"/>
       <c r="F18" s="71" t="n"/>
       <c r="G18" s="72" t="n">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="H18" s="73" t="n"/>
       <c r="I18" s="73" t="n"/>
@@ -2131,7 +2170,7 @@
       <c r="R18" s="73" t="n"/>
       <c r="S18" s="74" t="n"/>
       <c r="T18" s="72" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="U18" s="73" t="n"/>
       <c r="V18" s="73" t="n"/>
@@ -2140,7 +2179,7 @@
       <c r="Y18" s="73" t="n"/>
       <c r="Z18" s="74" t="n"/>
       <c r="AA18" s="72" t="n">
-        <v>3000</v>
+        <v>3280</v>
       </c>
       <c r="AB18" s="73" t="n"/>
       <c r="AC18" s="73" t="n"/>
@@ -2152,7 +2191,7 @@
     </row>
     <row customHeight="1" ht="17.25" r="19" s="91" spans="1:34">
       <c r="A19" s="55" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B19" s="24" t="n"/>
       <c r="C19" s="24" t="n"/>
@@ -2165,7 +2204,7 @@
       <c r="J19" s="24" t="n"/>
       <c r="K19" s="25" t="n"/>
       <c r="L19" s="23" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M19" s="24" t="n"/>
       <c r="N19" s="24" t="n"/>
@@ -2178,7 +2217,7 @@
       <c r="U19" s="24" t="n"/>
       <c r="V19" s="25" t="n"/>
       <c r="W19" s="23" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="X19" s="24" t="n"/>
       <c r="Y19" s="24" t="n"/>
@@ -2194,7 +2233,7 @@
     </row>
     <row customHeight="1" ht="14.25" r="20" s="91" spans="1:34">
       <c r="A20" s="56" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B20" s="27" t="n"/>
       <c r="C20" s="27" t="n"/>
@@ -2207,7 +2246,7 @@
       <c r="J20" s="27" t="n"/>
       <c r="K20" s="28" t="n"/>
       <c r="L20" s="26" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M20" s="27" t="n"/>
       <c r="N20" s="27" t="n"/>
@@ -2220,7 +2259,7 @@
       <c r="U20" s="27" t="n"/>
       <c r="V20" s="28" t="n"/>
       <c r="W20" s="26" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="X20" s="27" t="n"/>
       <c r="Y20" s="27" t="n"/>
@@ -2236,7 +2275,7 @@
     </row>
     <row customHeight="1" ht="30.75" r="21" s="91" spans="1:34">
       <c r="A21" s="76" t="n">
-        <v>2251</v>
+        <v>1600</v>
       </c>
       <c r="B21" s="77" t="n"/>
       <c r="C21" s="77" t="n"/>
@@ -2262,7 +2301,7 @@
       <c r="U21" s="77" t="n"/>
       <c r="V21" s="78" t="n"/>
       <c r="W21" s="80" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="X21" s="81" t="n"/>
       <c r="Y21" s="81" t="n"/>
@@ -2350,7 +2389,7 @@
     </row>
     <row customHeight="1" ht="21.75" r="24" s="91" spans="1:34">
       <c r="A24" s="57" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B24" s="58" t="n"/>
       <c r="C24" s="58" t="n"/>
@@ -2363,7 +2402,7 @@
       <c r="J24" s="58" t="n"/>
       <c r="K24" s="59" t="n"/>
       <c r="L24" s="60" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="M24" s="58" t="n"/>
       <c r="N24" s="58" t="n"/>
@@ -2376,7 +2415,7 @@
       <c r="U24" s="58" t="n"/>
       <c r="V24" s="58" t="n"/>
       <c r="W24" s="60" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="X24" s="58" t="n"/>
       <c r="Y24" s="58" t="n"/>
@@ -2392,13 +2431,13 @@
     </row>
     <row customHeight="1" ht="21.75" r="25" s="91" spans="1:34">
       <c r="A25" s="30" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B25" s="29" t="n"/>
       <c r="C25" s="29" t="n"/>
       <c r="D25" s="29" t="n"/>
       <c r="E25" s="83" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F25" s="83" t="n"/>
       <c r="G25" s="83" t="n"/>
@@ -2407,14 +2446,14 @@
       <c r="J25" s="83" t="n"/>
       <c r="K25" s="84" t="n"/>
       <c r="L25" s="61" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="M25" s="29" t="n"/>
       <c r="N25" s="29" t="n"/>
       <c r="O25" s="29" t="n"/>
       <c r="P25" s="29" t="n"/>
       <c r="Q25" s="83" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="R25" s="83" t="n"/>
       <c r="S25" s="83" t="n"/>
@@ -2422,14 +2461,14 @@
       <c r="U25" s="83" t="n"/>
       <c r="V25" s="83" t="n"/>
       <c r="W25" s="61" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="X25" s="29" t="n"/>
       <c r="Y25" s="29" t="n"/>
       <c r="Z25" s="29" t="n"/>
       <c r="AA25" s="29" t="n"/>
       <c r="AB25" s="83" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AC25" s="83" t="n"/>
       <c r="AD25" s="83" t="n"/>
